--- a/Cleaned_Cost_Data.xlsx
+++ b/Cleaned_Cost_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abbywoolf/Desktop/Data_Projects/Costing_App/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abbywoolf/Desktop/Costing-Tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DC9047-004E-CB47-872B-1190D8933167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC162D1D-0681-EC4C-8245-3D17838F2ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6020" yWindow="2400" windowWidth="33660" windowHeight="20620" xr2:uid="{8ABEDE47-3B85-F14A-B0BB-326C011AB851}"/>
   </bookViews>
@@ -3779,7 +3779,7 @@
   <dimension ref="A1:F563"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A425" sqref="A425:XFD425"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
